--- a/data/pseud_epi_growth_2024summer_R.xlsx
+++ b/data/pseud_epi_growth_2024summer_R.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA11D02-C6CE-3E45-829D-B9825351C618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B3D643-348C-E143-A26A-4B5F441B58F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="27720" windowHeight="16940" xr2:uid="{531AFAF7-A9B0-284D-AB86-9C10EDD001D7}"/>
+    <workbookView xWindow="1080" yWindow="0" windowWidth="27720" windowHeight="16940" xr2:uid="{531AFAF7-A9B0-284D-AB86-9C10EDD001D7}"/>
   </bookViews>
   <sheets>
     <sheet name="R" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="38">
   <si>
     <t>A1</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>D3</t>
+  </si>
+  <si>
+    <t>2-8</t>
   </si>
 </sst>
 </file>
@@ -311,7 +314,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -331,9 +334,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -343,13 +343,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -374,10 +383,76 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left/>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -417,7 +492,9 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <top style="thin">
           <color indexed="64"/>
         </top>
@@ -527,89 +604,10 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
+        <left/>
         <right style="thin">
           <color indexed="64"/>
         </right>
@@ -727,21 +725,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{473B24F8-CE6A-DD41-8057-5706F46969E7}" name="Table3" displayName="Table3" ref="A1:G115" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="A1:G115" xr:uid="{473B24F8-CE6A-DD41-8057-5706F46969E7}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G115">
-    <sortCondition ref="D1:D115"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{473B24F8-CE6A-DD41-8057-5706F46969E7}" name="Table3" displayName="Table3" ref="A1:G118" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="A1:G118" xr:uid="{473B24F8-CE6A-DD41-8057-5706F46969E7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G118">
+    <sortCondition ref="A1:A118"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{79B774C7-19E1-E44C-93A3-534AA1EC2EC5}" name="sample" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{79B774C7-19E1-E44C-93A3-534AA1EC2EC5}" name="sample" dataDxfId="6">
       <calculatedColumnFormula>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{BDF1DD58-4ACB-A24F-B5BD-72CD9F931025}" name="person" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{B8055292-21AA-6048-B0E9-DCD4D41BE2D0}" name="block" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{ED985B81-A5C7-1C48-A9FC-68F50AFED322}" name="strain" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{ED50E578-BA94-F94A-A39C-47AE786F0B3F}" name="species" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{111388D3-8650-BB4E-BF6C-36D07A696611}" name="plant_rep" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{0EFE4EF2-B0EE-814D-B3F4-2C291DA83834}" name="CFU_per_10_leafdiscs" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{BDF1DD58-4ACB-A24F-B5BD-72CD9F931025}" name="person" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{B8055292-21AA-6048-B0E9-DCD4D41BE2D0}" name="block" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{ED985B81-A5C7-1C48-A9FC-68F50AFED322}" name="strain" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{ED50E578-BA94-F94A-A39C-47AE786F0B3F}" name="species" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{111388D3-8650-BB4E-BF6C-36D07A696611}" name="plant_rep" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{0EFE4EF2-B0EE-814D-B3F4-2C291DA83834}" name="CFU_per_10_leafdiscs" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1064,10 +1062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC33927-75BD-A144-A8B4-F2C10C3589D3}">
-  <dimension ref="A1:G115"/>
+  <dimension ref="A1:G118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H113" sqref="H113"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="43.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1113,7 +1111,7 @@
       <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="2">
@@ -1125,7 +1123,7 @@
       <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="14">
         <v>40000</v>
       </c>
     </row>
@@ -1137,7 +1135,7 @@
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="2">
@@ -1149,7 +1147,7 @@
       <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="14">
         <v>57000</v>
       </c>
     </row>
@@ -1161,7 +1159,7 @@
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="2">
@@ -1173,7 +1171,7 @@
       <c r="F4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="14">
         <v>136500</v>
       </c>
     </row>
@@ -1185,7 +1183,7 @@
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="2">
@@ -1197,7 +1195,7 @@
       <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="14">
         <v>60000</v>
       </c>
     </row>
@@ -1209,7 +1207,7 @@
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="2">
@@ -1221,7 +1219,7 @@
       <c r="F6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="14">
         <v>146000</v>
       </c>
     </row>
@@ -1233,7 +1231,7 @@
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="2">
@@ -1245,7 +1243,7 @@
       <c r="F7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="14">
         <v>118750</v>
       </c>
     </row>
@@ -1257,7 +1255,7 @@
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="2">
@@ -1269,7 +1267,7 @@
       <c r="F8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="14">
         <v>230000</v>
       </c>
     </row>
@@ -1281,7 +1279,7 @@
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="2">
@@ -1293,7 +1291,7 @@
       <c r="F9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="14">
         <v>505000</v>
       </c>
     </row>
@@ -1305,7 +1303,7 @@
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="2">
@@ -1317,7 +1315,7 @@
       <c r="F10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="14">
         <v>115000</v>
       </c>
     </row>
@@ -1341,7 +1339,7 @@
       <c r="F11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="14">
         <v>138800</v>
       </c>
     </row>
@@ -1365,7 +1363,7 @@
       <c r="F12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="14">
         <v>139300</v>
       </c>
     </row>
@@ -1389,7 +1387,7 @@
       <c r="F13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="14">
         <v>395000</v>
       </c>
     </row>
@@ -1413,7 +1411,7 @@
       <c r="F14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="14">
         <v>300000</v>
       </c>
     </row>
@@ -1437,7 +1435,7 @@
       <c r="F15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="14">
         <v>390000</v>
       </c>
     </row>
@@ -1461,7 +1459,7 @@
       <c r="F16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="14">
         <v>12825</v>
       </c>
     </row>
@@ -1485,7 +1483,7 @@
       <c r="F17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="14">
         <v>610000</v>
       </c>
     </row>
@@ -1509,7 +1507,7 @@
       <c r="F18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="7">
+      <c r="G18" s="14">
         <v>195000</v>
       </c>
     </row>
@@ -1533,7 +1531,7 @@
       <c r="F19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G19" s="14">
         <v>170000</v>
       </c>
     </row>
@@ -1557,7 +1555,7 @@
       <c r="F20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G20" s="7">
+      <c r="G20" s="14">
         <v>8900</v>
       </c>
     </row>
@@ -1581,7 +1579,7 @@
       <c r="F21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="14">
         <v>460000</v>
       </c>
     </row>
@@ -1605,7 +1603,7 @@
       <c r="F22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G22" s="7">
+      <c r="G22" s="14">
         <v>182500</v>
       </c>
     </row>
@@ -1617,7 +1615,7 @@
       <c r="B23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="2">
@@ -1629,7 +1627,7 @@
       <c r="F23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G23" s="7">
+      <c r="G23" s="14">
         <v>5200</v>
       </c>
     </row>
@@ -1641,7 +1639,7 @@
       <c r="B24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="2">
@@ -1653,7 +1651,7 @@
       <c r="F24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="14" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1665,7 +1663,7 @@
       <c r="B25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D25" s="2">
@@ -1677,7 +1675,7 @@
       <c r="F25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="7">
+      <c r="G25" s="14">
         <v>495000</v>
       </c>
     </row>
@@ -1689,7 +1687,7 @@
       <c r="B26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D26" s="2">
@@ -1701,7 +1699,7 @@
       <c r="F26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="7">
+      <c r="G26" s="14">
         <v>97000</v>
       </c>
     </row>
@@ -1713,7 +1711,7 @@
       <c r="B27" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D27" s="2">
@@ -1725,7 +1723,7 @@
       <c r="F27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="7">
+      <c r="G27" s="14">
         <v>114000</v>
       </c>
     </row>
@@ -1737,7 +1735,7 @@
       <c r="B28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D28" s="2">
@@ -1749,7 +1747,7 @@
       <c r="F28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="7">
+      <c r="G28" s="14">
         <v>132500</v>
       </c>
     </row>
@@ -1773,7 +1771,7 @@
       <c r="F29" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G29" s="7">
+      <c r="G29" s="14">
         <v>110000</v>
       </c>
     </row>
@@ -1797,7 +1795,7 @@
       <c r="F30" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G30" s="7">
+      <c r="G30" s="14">
         <v>170000</v>
       </c>
     </row>
@@ -1821,7 +1819,7 @@
       <c r="F31" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="G31" s="14" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1845,7 +1843,7 @@
       <c r="F32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="14" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1869,7 +1867,7 @@
       <c r="F33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="7">
+      <c r="G33" s="14">
         <v>31000</v>
       </c>
     </row>
@@ -1893,92 +1891,92 @@
       <c r="F34" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G34" s="7">
+      <c r="G34" s="14">
         <v>30000</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="6" t="str">
-        <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>215-A1</v>
+      <c r="A35" s="12" t="str">
+        <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
+        <v>205-C1</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C35" s="2">
-        <v>3</v>
-      </c>
-      <c r="D35" s="2">
-        <v>215</v>
+        <v>13</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="13">
+        <v>205</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="14">
+        <v>675000</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="str">
-        <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>215-A2</v>
+      <c r="A36" s="12" t="str">
+        <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
+        <v>205-C2</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C36" s="2">
-        <v>3</v>
-      </c>
-      <c r="D36" s="2">
-        <v>215</v>
+        <v>13</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="13">
+        <v>205</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="14">
+        <v>180000</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="str">
-        <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>215-A3</v>
+      <c r="A37" s="12" t="str">
+        <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
+        <v>205-C3</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C37" s="2">
-        <v>3</v>
-      </c>
-      <c r="D37" s="2">
-        <v>215</v>
+        <v>13</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="13">
+        <v>205</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="14">
+        <v>465000</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>215-B1</v>
+        <v>215-A1</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C38" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" s="2">
         <v>215</v>
@@ -1987,22 +1985,22 @@
         <v>17</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G38" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>215-B2</v>
+        <v>215-A2</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C39" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" s="2">
         <v>215</v>
@@ -2011,22 +2009,22 @@
         <v>17</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G39" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G39" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>215-B3</v>
+        <v>215-A3</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C40" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" s="2">
         <v>215</v>
@@ -2035,94 +2033,94 @@
         <v>17</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G40" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G40" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>216-A1</v>
+        <v>215-B1</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C41" s="2">
+        <v>4</v>
+      </c>
+      <c r="D41" s="2">
+        <v>215</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="2">
-        <v>216</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G41" s="7">
-        <v>22000</v>
+      <c r="G41" s="14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>216-A2</v>
+        <v>215-B2</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C42" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G42" s="7">
-        <v>2000</v>
+        <v>4</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>216-A3</v>
+        <v>215-B3</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C43" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G43" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>216-B1</v>
+        <v>216-A1</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C44" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" s="2">
         <v>216</v>
@@ -2131,22 +2129,22 @@
         <v>16</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="G44" s="14">
+        <v>22000</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>216-B2</v>
+        <v>216-A2</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C45" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D45" s="2">
         <v>216</v>
@@ -2155,22 +2153,22 @@
         <v>16</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="7">
-        <v>4700</v>
+        <v>1</v>
+      </c>
+      <c r="G45" s="14">
+        <v>2000</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>216-B3</v>
+        <v>216-A3</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C46" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D46" s="2">
         <v>216</v>
@@ -2179,22 +2177,22 @@
         <v>16</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G46" s="7">
-        <v>3900</v>
+        <v>2</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>216-C1</v>
+        <v>216-B1</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C47" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D47" s="2">
         <v>216</v>
@@ -2203,22 +2201,22 @@
         <v>16</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G47" s="7">
-        <v>4700</v>
+        <v>3</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>216-C2</v>
+        <v>216-B2</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C48" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D48" s="2">
         <v>216</v>
@@ -2227,22 +2225,22 @@
         <v>16</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G48" s="7">
-        <v>15000</v>
+        <v>4</v>
+      </c>
+      <c r="G48" s="14">
+        <v>4700</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>216-C3</v>
+        <v>216-B3</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C49" s="2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D49" s="2">
         <v>216</v>
@@ -2251,94 +2249,94 @@
         <v>16</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="G49" s="14">
+        <v>3900</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>220-A1</v>
+        <v>216-C1</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C50" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D50" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G50" s="7">
-        <v>40000</v>
+        <v>26</v>
+      </c>
+      <c r="G50" s="14">
+        <v>4700</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>220-A2</v>
+        <v>216-C2</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C51" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D51" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G51" s="7">
-        <v>36000</v>
+        <v>27</v>
+      </c>
+      <c r="G51" s="14">
+        <v>15000</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>220-A3</v>
+        <v>216-C3</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C52" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D52" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G52" s="7">
-        <v>29000</v>
+        <v>28</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>220-B1</v>
+        <v>220-A1</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C53" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D53" s="2">
         <v>220</v>
@@ -2347,22 +2345,22 @@
         <v>18</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G53" s="7">
-        <v>300000</v>
+        <v>0</v>
+      </c>
+      <c r="G53" s="14">
+        <v>40000</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>220-B2</v>
+        <v>220-A2</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C54" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D54" s="2">
         <v>220</v>
@@ -2371,22 +2369,22 @@
         <v>18</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>11</v>
+        <v>1</v>
+      </c>
+      <c r="G54" s="14">
+        <v>36000</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>220-B3</v>
+        <v>220-A3</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C55" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D55" s="2">
         <v>220</v>
@@ -2395,22 +2393,22 @@
         <v>18</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G55" s="7">
-        <v>2800</v>
+        <v>2</v>
+      </c>
+      <c r="G55" s="14">
+        <v>29000</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>220-C1</v>
+        <v>220-B1</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C56" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D56" s="2">
         <v>220</v>
@@ -2419,22 +2417,22 @@
         <v>18</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G56" s="7">
-        <v>330000</v>
+        <v>3</v>
+      </c>
+      <c r="G56" s="14">
+        <v>300000</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>220-C2</v>
+        <v>220-B2</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C57" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D57" s="2">
         <v>220</v>
@@ -2443,22 +2441,22 @@
         <v>18</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G57" s="7">
-        <v>470000</v>
+        <v>4</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>220-C3</v>
+        <v>220-B3</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C58" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D58" s="2">
         <v>220</v>
@@ -2467,88 +2465,88 @@
         <v>18</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>11</v>
+        <v>5</v>
+      </c>
+      <c r="G58" s="14">
+        <v>2800</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>221-A1</v>
+        <v>220-C1</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="C59" s="2">
+        <v>7</v>
       </c>
       <c r="D59" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G59" s="7">
-        <v>345000</v>
+        <v>26</v>
+      </c>
+      <c r="G59" s="14">
+        <v>330000</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>221-A2</v>
+        <v>220-C2</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="C60" s="2">
+        <v>7</v>
       </c>
       <c r="D60" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G60" s="7">
-        <v>350000</v>
+        <v>27</v>
+      </c>
+      <c r="G60" s="14">
+        <v>470000</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>221-A3</v>
+        <v>220-C3</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="C61" s="2">
+        <v>7</v>
       </c>
       <c r="D61" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G61" s="7">
-        <v>61000</v>
+        <v>28</v>
+      </c>
+      <c r="G61" s="14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>221-B1</v>
+        <v>221-A1</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>13</v>
@@ -2563,16 +2561,16 @@
         <v>16</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="7">
-        <v>210000</v>
+        <v>0</v>
+      </c>
+      <c r="G62" s="14">
+        <v>345000</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>221-B2</v>
+        <v>221-A2</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>13</v>
@@ -2587,16 +2585,16 @@
         <v>16</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G63" s="7">
-        <v>360000</v>
+        <v>1</v>
+      </c>
+      <c r="G63" s="14">
+        <v>350000</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>221-B3</v>
+        <v>221-A3</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>13</v>
@@ -2611,16 +2609,16 @@
         <v>16</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G64" s="7">
-        <v>19500</v>
+        <v>2</v>
+      </c>
+      <c r="G64" s="14">
+        <v>61000</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>221-C1</v>
+        <v>221-B1</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>13</v>
@@ -2635,16 +2633,16 @@
         <v>16</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G65" s="7">
-        <v>120500</v>
+        <v>3</v>
+      </c>
+      <c r="G65" s="14">
+        <v>210000</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>221-C2</v>
+        <v>221-B2</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>13</v>
@@ -2659,16 +2657,16 @@
         <v>16</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G66" s="7">
-        <v>220000</v>
+        <v>4</v>
+      </c>
+      <c r="G66" s="14">
+        <v>360000</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>221-C3</v>
+        <v>221-B3</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>13</v>
@@ -2683,94 +2681,94 @@
         <v>16</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G67" s="7">
-        <v>650000</v>
+        <v>5</v>
+      </c>
+      <c r="G67" s="14">
+        <v>19500</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>227-A1</v>
+        <v>221-C1</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C68" s="2">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="D68" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G68" s="7">
-        <v>22000</v>
+        <v>26</v>
+      </c>
+      <c r="G68" s="14">
+        <v>120500</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>227-A2</v>
+        <v>221-C2</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C69" s="2">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="D69" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="G69" s="14">
+        <v>220000</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>227-A3</v>
+        <v>221-C3</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C70" s="2">
-        <v>5</v>
+        <v>13</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="D70" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="G70" s="14">
+        <v>650000</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>227-B1</v>
+        <v>227-A1</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C71" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D71" s="2">
         <v>227</v>
@@ -2779,22 +2777,22 @@
         <v>16</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G71" s="7">
-        <v>87000</v>
+        <v>0</v>
+      </c>
+      <c r="G71" s="14">
+        <v>22000</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>227-B2</v>
+        <v>227-A2</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C72" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D72" s="2">
         <v>227</v>
@@ -2803,22 +2801,22 @@
         <v>16</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G72" s="7">
-        <v>2500</v>
+        <v>1</v>
+      </c>
+      <c r="G72" s="14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>227-B3</v>
+        <v>227-A3</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C73" s="2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D73" s="2">
         <v>227</v>
@@ -2827,16 +2825,16 @@
         <v>16</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G73" s="7">
-        <v>11050</v>
+        <v>2</v>
+      </c>
+      <c r="G73" s="14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>227-C1</v>
+        <v>227-B1</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>14</v>
@@ -2851,16 +2849,16 @@
         <v>16</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G74" s="7">
-        <v>144000</v>
+        <v>3</v>
+      </c>
+      <c r="G74" s="14">
+        <v>87000</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>227-C2</v>
+        <v>227-B2</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>14</v>
@@ -2875,16 +2873,16 @@
         <v>16</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G75" s="7">
-        <v>470000</v>
+        <v>4</v>
+      </c>
+      <c r="G75" s="14">
+        <v>2500</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>227-C3</v>
+        <v>227-B3</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>14</v>
@@ -2899,94 +2897,94 @@
         <v>16</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G76" s="7">
-        <v>7300</v>
+        <v>5</v>
+      </c>
+      <c r="G76" s="14">
+        <v>11050</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>228-A1</v>
+        <v>227-C1</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C77" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D77" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G77" s="7">
-        <v>42000</v>
+        <v>26</v>
+      </c>
+      <c r="G77" s="14">
+        <v>144000</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>228-A2</v>
+        <v>227-C2</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C78" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D78" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="G78" s="14">
+        <v>470000</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>228-A3</v>
+        <v>227-C3</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C79" s="2">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D79" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G79" s="7">
-        <v>38000</v>
+        <v>28</v>
+      </c>
+      <c r="G79" s="14">
+        <v>7300</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>228-B1</v>
+        <v>228-A1</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C80" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D80" s="2">
         <v>228</v>
@@ -2995,22 +2993,22 @@
         <v>16</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="G80" s="14">
+        <v>42000</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>228-B2</v>
+        <v>228-A2</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C81" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D81" s="2">
         <v>228</v>
@@ -3019,22 +3017,22 @@
         <v>16</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G81" s="7">
-        <v>23000</v>
+        <v>1</v>
+      </c>
+      <c r="G81" s="14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>228-B3</v>
+        <v>228-A3</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C82" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D82" s="2">
         <v>228</v>
@@ -3043,22 +3041,22 @@
         <v>16</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G82" s="7">
-        <v>65000</v>
+        <v>2</v>
+      </c>
+      <c r="G82" s="14">
+        <v>38000</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>228-C1</v>
+        <v>228-B1</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C83" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D83" s="2">
         <v>228</v>
@@ -3067,22 +3065,22 @@
         <v>16</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G83" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>228-C2</v>
+        <v>228-B2</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C84" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D84" s="2">
         <v>228</v>
@@ -3091,22 +3089,22 @@
         <v>16</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G84" s="7">
-        <v>12000</v>
+        <v>4</v>
+      </c>
+      <c r="G84" s="14">
+        <v>23000</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>228-C3</v>
+        <v>228-B3</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C85" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D85" s="2">
         <v>228</v>
@@ -3115,22 +3113,22 @@
         <v>16</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>15</v>
+        <v>5</v>
+      </c>
+      <c r="G85" s="14">
+        <v>65000</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>228-D1</v>
+        <v>228-C1</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C86" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D86" s="2">
         <v>228</v>
@@ -3139,22 +3137,22 @@
         <v>16</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G86" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G86" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>228-D2</v>
+        <v>228-C2</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C87" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D87" s="2">
         <v>228</v>
@@ -3163,22 +3161,22 @@
         <v>16</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
+      </c>
+      <c r="G87" s="14">
+        <v>12000</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>228-D3</v>
+        <v>228-C3</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C88" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D88" s="2">
         <v>228</v>
@@ -3187,94 +3185,94 @@
         <v>16</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G88" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G88" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>B728a-A1</v>
+        <v>228-D1</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C89" s="2">
-        <v>4</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
+      </c>
+      <c r="D89" s="2">
+        <v>228</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F89" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G89" s="7">
-        <v>360000</v>
+        <v>16</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G89" s="14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>B728a-A2</v>
+        <v>228-D2</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C90" s="2">
-        <v>4</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
+      </c>
+      <c r="D90" s="2">
+        <v>228</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F90" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G90" s="7">
-        <v>24000</v>
+        <v>16</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G90" s="14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>B728a-A3</v>
+        <v>228-D3</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C91" s="2">
-        <v>4</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>32</v>
+        <v>8</v>
+      </c>
+      <c r="D91" s="2">
+        <v>228</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F91" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G91" s="7">
-        <v>250000</v>
+        <v>16</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G91" s="14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>B728a-B1</v>
+        <v>B728a-A1</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C92" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>32</v>
@@ -3282,23 +3280,23 @@
       <c r="E92" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F92" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G92" s="7" t="s">
-        <v>15</v>
+      <c r="F92" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G92" s="14">
+        <v>360000</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>B728a-B2</v>
+        <v>B728a-A2</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C93" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>32</v>
@@ -3306,23 +3304,23 @@
       <c r="E93" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F93" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G93" s="7" t="s">
-        <v>15</v>
+      <c r="F93" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G93" s="14">
+        <v>24000</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>B728a-B3</v>
+        <v>B728a-A3</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C94" s="2">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>32</v>
@@ -3330,17 +3328,17 @@
       <c r="E94" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F94" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="7" t="s">
-        <v>15</v>
+      <c r="F94" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G94" s="14">
+        <v>250000</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>B728a-C1</v>
+        <v>B728a-B1</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>14</v>
@@ -3354,17 +3352,17 @@
       <c r="E95" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F95" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G95" s="7" t="s">
+      <c r="F95" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G95" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>B728a-C2</v>
+        <v>B728a-B2</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>14</v>
@@ -3378,17 +3376,17 @@
       <c r="E96" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F96" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G96" s="7">
-        <v>1300</v>
+      <c r="F96" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G96" s="14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>B728a-C3</v>
+        <v>B728a-B3</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>14</v>
@@ -3402,89 +3400,89 @@
       <c r="E97" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F97" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G97" s="7">
-        <v>1000</v>
+      <c r="F97" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G97" s="14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>Cit7-A1</v>
+        <v>B728a-C1</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="C98" s="2">
+        <v>8</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F98" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G98" s="7">
-        <v>13000</v>
+      <c r="F98" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G98" s="14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>Cit7-A2</v>
+        <v>B728a-C2</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="C99" s="2">
+        <v>8</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F99" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G99" s="7">
-        <v>27000</v>
+      <c r="F99" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G99" s="14">
+        <v>1300</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>Cit7-A3</v>
+        <v>B728a-C3</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="C100" s="2">
+        <v>8</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F100" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G100" s="7">
-        <v>94500</v>
+      <c r="F100" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G100" s="14">
+        <v>1000</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>Cit7-B1</v>
+        <v>Cit7-A1</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>13</v>
@@ -3498,17 +3496,17 @@
       <c r="E101" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F101" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G101" s="7">
-        <v>1650</v>
+      <c r="F101" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G101" s="14">
+        <v>13000</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>Cit7-B2</v>
+        <v>Cit7-A2</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>13</v>
@@ -3522,17 +3520,17 @@
       <c r="E102" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F102" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G102" s="7">
-        <v>365000</v>
+      <c r="F102" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G102" s="14">
+        <v>27000</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>Cit7-B3</v>
+        <v>Cit7-A3</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>13</v>
@@ -3546,23 +3544,23 @@
       <c r="E103" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F103" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G103" s="7">
-        <v>14000</v>
+      <c r="F103" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G103" s="14">
+        <v>94500</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>Cit7-C1</v>
+        <v>Cit7-B1</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>21</v>
@@ -3570,23 +3568,23 @@
       <c r="E104" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F104" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G104" s="7">
-        <v>4000</v>
+      <c r="F104" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G104" s="14">
+        <v>1650</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>Cit7-C2</v>
+        <v>Cit7-B2</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>21</v>
@@ -3594,23 +3592,23 @@
       <c r="E105" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F105" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="G105" s="7">
-        <v>12000</v>
+      <c r="F105" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G105" s="14">
+        <v>365000</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>Cit7-C3</v>
+        <v>Cit7-B3</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>21</v>
@@ -3618,17 +3616,17 @@
       <c r="E106" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F106" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="G106" s="7">
-        <v>26000</v>
+      <c r="F106" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G106" s="14">
+        <v>14000</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>pisi-A1</v>
+        <v>Cit7-C1</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>13</v>
@@ -3637,22 +3635,22 @@
         <v>23</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F107" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G107" s="7">
-        <v>17500</v>
+      <c r="F107" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G107" s="14">
+        <v>4000</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>pisi-A2</v>
+        <v>Cit7-C2</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>13</v>
@@ -3661,22 +3659,22 @@
         <v>23</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F108" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="G108" s="7" t="s">
-        <v>15</v>
+      <c r="F108" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G108" s="14">
+        <v>12000</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>pisi-A3</v>
+        <v>Cit7-C3</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>13</v>
@@ -3685,22 +3683,22 @@
         <v>23</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F109" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G109" s="7">
-        <v>2550</v>
+      <c r="F109" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G109" s="14">
+        <v>26000</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>pisi-B1</v>
+        <v>pisi-A1</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>13</v>
@@ -3714,17 +3712,17 @@
       <c r="E110" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F110" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G110" s="7" t="s">
-        <v>22</v>
+      <c r="F110" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G110" s="14">
+        <v>17500</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>pisi-B2</v>
+        <v>pisi-A2</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>13</v>
@@ -3738,17 +3736,17 @@
       <c r="E111" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F111" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="G111" s="7" t="s">
-        <v>22</v>
+      <c r="F111" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G111" s="14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>pisi-B3</v>
+        <v>pisi-A3</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>13</v>
@@ -3762,23 +3760,23 @@
       <c r="E112" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F112" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G112" s="7" t="s">
-        <v>22</v>
+      <c r="F112" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G112" s="14">
+        <v>2550</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>pisi-C1</v>
+        <v>pisi-B1</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>33</v>
@@ -3786,23 +3784,23 @@
       <c r="E113" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F113" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G113" s="7">
-        <v>137500</v>
+      <c r="F113" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G113" s="14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>pisi-C2</v>
+        <v>pisi-B2</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>33</v>
@@ -3810,34 +3808,106 @@
       <c r="E114" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F114" s="13" t="s">
+      <c r="F114" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G114" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="8" t="str">
+        <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
+        <v>pisi-B3</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E115" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F115" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G115" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" s="8" t="str">
+        <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
+        <v>pisi-C1</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F116" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G116" s="15">
+        <v>137500</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="8" t="str">
+        <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
+        <v>pisi-C2</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F117" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G114" s="7" t="s">
+      <c r="G117" s="15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" s="9" t="str">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="8" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>pisi-C3</v>
       </c>
-      <c r="B115" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C115" s="10" t="s">
+      <c r="B118" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D115" s="10" t="s">
+      <c r="D118" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E115" s="10" t="s">
+      <c r="E118" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F115" s="13" t="s">
+      <c r="F118" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G115" s="11" t="s">
+      <c r="G118" s="15" t="s">
         <v>15</v>
       </c>
     </row>

--- a/data/pseud_epi_growth_2024summer_R.xlsx
+++ b/data/pseud_epi_growth_2024summer_R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B3D643-348C-E143-A26A-4B5F441B58F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384DE06F-B40F-AF47-AD93-B4856DDEFA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="0" windowWidth="27720" windowHeight="16940" xr2:uid="{531AFAF7-A9B0-284D-AB86-9C10EDD001D7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="39">
   <si>
     <t>A1</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>2-8</t>
+  </si>
+  <si>
+    <t>2-9</t>
   </si>
 </sst>
 </file>
@@ -349,9 +352,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -359,6 +359,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -725,8 +728,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{473B24F8-CE6A-DD41-8057-5706F46969E7}" name="Table3" displayName="Table3" ref="A1:G118" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="A1:G118" xr:uid="{473B24F8-CE6A-DD41-8057-5706F46969E7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{473B24F8-CE6A-DD41-8057-5706F46969E7}" name="Table3" displayName="Table3" ref="A1:G121" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="A1:G121" xr:uid="{473B24F8-CE6A-DD41-8057-5706F46969E7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G118">
     <sortCondition ref="A1:A118"/>
   </sortState>
@@ -1062,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC33927-75BD-A144-A8B4-F2C10C3589D3}">
-  <dimension ref="A1:G118"/>
+  <dimension ref="A1:G121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="H111" sqref="H111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="43.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1123,7 +1126,7 @@
       <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="13">
         <v>40000</v>
       </c>
     </row>
@@ -1147,7 +1150,7 @@
       <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="13">
         <v>57000</v>
       </c>
     </row>
@@ -1171,7 +1174,7 @@
       <c r="F4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="13">
         <v>136500</v>
       </c>
     </row>
@@ -1195,7 +1198,7 @@
       <c r="F5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="13">
         <v>60000</v>
       </c>
     </row>
@@ -1219,7 +1222,7 @@
       <c r="F6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="13">
         <v>146000</v>
       </c>
     </row>
@@ -1243,7 +1246,7 @@
       <c r="F7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="13">
         <v>118750</v>
       </c>
     </row>
@@ -1267,7 +1270,7 @@
       <c r="F8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <v>230000</v>
       </c>
     </row>
@@ -1291,7 +1294,7 @@
       <c r="F9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="13">
         <v>505000</v>
       </c>
     </row>
@@ -1315,7 +1318,7 @@
       <c r="F10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="13">
         <v>115000</v>
       </c>
     </row>
@@ -1339,7 +1342,7 @@
       <c r="F11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="13">
         <v>138800</v>
       </c>
     </row>
@@ -1363,7 +1366,7 @@
       <c r="F12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="13">
         <v>139300</v>
       </c>
     </row>
@@ -1387,7 +1390,7 @@
       <c r="F13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="13">
         <v>395000</v>
       </c>
     </row>
@@ -1411,7 +1414,7 @@
       <c r="F14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="13">
         <v>300000</v>
       </c>
     </row>
@@ -1435,7 +1438,7 @@
       <c r="F15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="13">
         <v>390000</v>
       </c>
     </row>
@@ -1459,7 +1462,7 @@
       <c r="F16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="13">
         <v>12825</v>
       </c>
     </row>
@@ -1483,7 +1486,7 @@
       <c r="F17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="13">
         <v>610000</v>
       </c>
     </row>
@@ -1507,7 +1510,7 @@
       <c r="F18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="13">
         <v>195000</v>
       </c>
     </row>
@@ -1531,7 +1534,7 @@
       <c r="F19" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="13">
         <v>170000</v>
       </c>
     </row>
@@ -1555,7 +1558,7 @@
       <c r="F20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="13">
         <v>8900</v>
       </c>
     </row>
@@ -1579,7 +1582,7 @@
       <c r="F21" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="13">
         <v>460000</v>
       </c>
     </row>
@@ -1603,7 +1606,7 @@
       <c r="F22" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="13">
         <v>182500</v>
       </c>
     </row>
@@ -1627,7 +1630,7 @@
       <c r="F23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="13">
         <v>5200</v>
       </c>
     </row>
@@ -1651,7 +1654,7 @@
       <c r="F24" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="13" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1675,7 +1678,7 @@
       <c r="F25" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="13">
         <v>495000</v>
       </c>
     </row>
@@ -1699,7 +1702,7 @@
       <c r="F26" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="13">
         <v>97000</v>
       </c>
     </row>
@@ -1723,7 +1726,7 @@
       <c r="F27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="13">
         <v>114000</v>
       </c>
     </row>
@@ -1747,7 +1750,7 @@
       <c r="F28" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28" s="13">
         <v>132500</v>
       </c>
     </row>
@@ -1771,7 +1774,7 @@
       <c r="F29" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G29" s="13">
         <v>110000</v>
       </c>
     </row>
@@ -1795,7 +1798,7 @@
       <c r="F30" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G30" s="13">
         <v>170000</v>
       </c>
     </row>
@@ -1819,7 +1822,7 @@
       <c r="F31" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G31" s="14" t="s">
+      <c r="G31" s="13" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1843,7 +1846,7 @@
       <c r="F32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G32" s="14" t="s">
+      <c r="G32" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1867,7 +1870,7 @@
       <c r="F33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G33" s="13">
         <v>31000</v>
       </c>
     </row>
@@ -1891,12 +1894,12 @@
       <c r="F34" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G34" s="13">
         <v>30000</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="12" t="str">
+      <c r="A35" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>205-C1</v>
       </c>
@@ -1906,7 +1909,7 @@
       <c r="C35" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="12">
         <v>205</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -1915,12 +1918,12 @@
       <c r="F35" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G35" s="14">
+      <c r="G35" s="13">
         <v>675000</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="12" t="str">
+      <c r="A36" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>205-C2</v>
       </c>
@@ -1930,7 +1933,7 @@
       <c r="C36" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="12">
         <v>205</v>
       </c>
       <c r="E36" s="2" t="s">
@@ -1939,12 +1942,12 @@
       <c r="F36" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G36" s="14">
+      <c r="G36" s="13">
         <v>180000</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="12" t="str">
+      <c r="A37" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>205-C3</v>
       </c>
@@ -1954,7 +1957,7 @@
       <c r="C37" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="12">
         <v>205</v>
       </c>
       <c r="E37" s="2" t="s">
@@ -1963,7 +1966,7 @@
       <c r="F37" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G37" s="14">
+      <c r="G37" s="13">
         <v>465000</v>
       </c>
     </row>
@@ -1987,7 +1990,7 @@
       <c r="F38" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G38" s="14" t="s">
+      <c r="G38" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2011,7 +2014,7 @@
       <c r="F39" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G39" s="14" t="s">
+      <c r="G39" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2035,7 +2038,7 @@
       <c r="F40" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G40" s="14" t="s">
+      <c r="G40" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2059,7 +2062,7 @@
       <c r="F41" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G41" s="14" t="s">
+      <c r="G41" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2083,7 +2086,7 @@
       <c r="F42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G42" s="14" t="s">
+      <c r="G42" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2107,7 +2110,7 @@
       <c r="F43" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G43" s="14" t="s">
+      <c r="G43" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2131,7 +2134,7 @@
       <c r="F44" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G44" s="14">
+      <c r="G44" s="13">
         <v>22000</v>
       </c>
     </row>
@@ -2155,7 +2158,7 @@
       <c r="F45" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G45" s="14">
+      <c r="G45" s="13">
         <v>2000</v>
       </c>
     </row>
@@ -2179,7 +2182,7 @@
       <c r="F46" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G46" s="14" t="s">
+      <c r="G46" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2203,7 +2206,7 @@
       <c r="F47" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="14" t="s">
+      <c r="G47" s="13" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2227,7 +2230,7 @@
       <c r="F48" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G48" s="14">
+      <c r="G48" s="13">
         <v>4700</v>
       </c>
     </row>
@@ -2251,7 +2254,7 @@
       <c r="F49" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G49" s="14">
+      <c r="G49" s="13">
         <v>3900</v>
       </c>
     </row>
@@ -2275,7 +2278,7 @@
       <c r="F50" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G50" s="14">
+      <c r="G50" s="13">
         <v>4700</v>
       </c>
     </row>
@@ -2299,7 +2302,7 @@
       <c r="F51" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G51" s="14">
+      <c r="G51" s="13">
         <v>15000</v>
       </c>
     </row>
@@ -2323,7 +2326,7 @@
       <c r="F52" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G52" s="14" t="s">
+      <c r="G52" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2347,7 +2350,7 @@
       <c r="F53" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G53" s="14">
+      <c r="G53" s="13">
         <v>40000</v>
       </c>
     </row>
@@ -2371,7 +2374,7 @@
       <c r="F54" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G54" s="14">
+      <c r="G54" s="13">
         <v>36000</v>
       </c>
     </row>
@@ -2395,7 +2398,7 @@
       <c r="F55" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G55" s="14">
+      <c r="G55" s="13">
         <v>29000</v>
       </c>
     </row>
@@ -2419,7 +2422,7 @@
       <c r="F56" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G56" s="14">
+      <c r="G56" s="13">
         <v>300000</v>
       </c>
     </row>
@@ -2443,7 +2446,7 @@
       <c r="F57" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G57" s="14" t="s">
+      <c r="G57" s="13" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2467,7 +2470,7 @@
       <c r="F58" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G58" s="14">
+      <c r="G58" s="13">
         <v>2800</v>
       </c>
     </row>
@@ -2491,7 +2494,7 @@
       <c r="F59" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G59" s="14">
+      <c r="G59" s="13">
         <v>330000</v>
       </c>
     </row>
@@ -2515,7 +2518,7 @@
       <c r="F60" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G60" s="14">
+      <c r="G60" s="13">
         <v>470000</v>
       </c>
     </row>
@@ -2539,7 +2542,7 @@
       <c r="F61" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G61" s="14" t="s">
+      <c r="G61" s="13" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2563,7 +2566,7 @@
       <c r="F62" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G62" s="14">
+      <c r="G62" s="13">
         <v>345000</v>
       </c>
     </row>
@@ -2587,7 +2590,7 @@
       <c r="F63" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G63" s="14">
+      <c r="G63" s="13">
         <v>350000</v>
       </c>
     </row>
@@ -2611,7 +2614,7 @@
       <c r="F64" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G64" s="14">
+      <c r="G64" s="13">
         <v>61000</v>
       </c>
     </row>
@@ -2635,7 +2638,7 @@
       <c r="F65" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G65" s="14">
+      <c r="G65" s="13">
         <v>210000</v>
       </c>
     </row>
@@ -2659,7 +2662,7 @@
       <c r="F66" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G66" s="14">
+      <c r="G66" s="13">
         <v>360000</v>
       </c>
     </row>
@@ -2683,7 +2686,7 @@
       <c r="F67" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G67" s="14">
+      <c r="G67" s="13">
         <v>19500</v>
       </c>
     </row>
@@ -2707,7 +2710,7 @@
       <c r="F68" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G68" s="14">
+      <c r="G68" s="13">
         <v>120500</v>
       </c>
     </row>
@@ -2731,7 +2734,7 @@
       <c r="F69" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G69" s="14">
+      <c r="G69" s="13">
         <v>220000</v>
       </c>
     </row>
@@ -2755,7 +2758,7 @@
       <c r="F70" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G70" s="14">
+      <c r="G70" s="13">
         <v>650000</v>
       </c>
     </row>
@@ -2779,7 +2782,7 @@
       <c r="F71" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G71" s="14">
+      <c r="G71" s="13">
         <v>22000</v>
       </c>
     </row>
@@ -2803,7 +2806,7 @@
       <c r="F72" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G72" s="14" t="s">
+      <c r="G72" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2827,7 +2830,7 @@
       <c r="F73" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G73" s="14" t="s">
+      <c r="G73" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2851,7 +2854,7 @@
       <c r="F74" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G74" s="14">
+      <c r="G74" s="13">
         <v>87000</v>
       </c>
     </row>
@@ -2875,7 +2878,7 @@
       <c r="F75" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G75" s="14">
+      <c r="G75" s="13">
         <v>2500</v>
       </c>
     </row>
@@ -2899,7 +2902,7 @@
       <c r="F76" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G76" s="14">
+      <c r="G76" s="13">
         <v>11050</v>
       </c>
     </row>
@@ -2923,7 +2926,7 @@
       <c r="F77" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G77" s="14">
+      <c r="G77" s="13">
         <v>144000</v>
       </c>
     </row>
@@ -2947,7 +2950,7 @@
       <c r="F78" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G78" s="14">
+      <c r="G78" s="13">
         <v>470000</v>
       </c>
     </row>
@@ -2971,7 +2974,7 @@
       <c r="F79" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G79" s="14">
+      <c r="G79" s="13">
         <v>7300</v>
       </c>
     </row>
@@ -2995,7 +2998,7 @@
       <c r="F80" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G80" s="14">
+      <c r="G80" s="13">
         <v>42000</v>
       </c>
     </row>
@@ -3019,7 +3022,7 @@
       <c r="F81" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G81" s="14" t="s">
+      <c r="G81" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3043,7 +3046,7 @@
       <c r="F82" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G82" s="14">
+      <c r="G82" s="13">
         <v>38000</v>
       </c>
     </row>
@@ -3067,7 +3070,7 @@
       <c r="F83" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G83" s="14" t="s">
+      <c r="G83" s="13" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3091,7 +3094,7 @@
       <c r="F84" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G84" s="14">
+      <c r="G84" s="13">
         <v>23000</v>
       </c>
     </row>
@@ -3115,7 +3118,7 @@
       <c r="F85" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G85" s="14">
+      <c r="G85" s="13">
         <v>65000</v>
       </c>
     </row>
@@ -3139,7 +3142,7 @@
       <c r="F86" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G86" s="14" t="s">
+      <c r="G86" s="13" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3163,7 +3166,7 @@
       <c r="F87" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G87" s="14">
+      <c r="G87" s="13">
         <v>12000</v>
       </c>
     </row>
@@ -3187,7 +3190,7 @@
       <c r="F88" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G88" s="14" t="s">
+      <c r="G88" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3211,7 +3214,7 @@
       <c r="F89" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G89" s="14" t="s">
+      <c r="G89" s="13" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3235,7 +3238,7 @@
       <c r="F90" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G90" s="14" t="s">
+      <c r="G90" s="13" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3259,7 +3262,7 @@
       <c r="F91" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G91" s="14" t="s">
+      <c r="G91" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3283,7 +3286,7 @@
       <c r="F92" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G92" s="14">
+      <c r="G92" s="13">
         <v>360000</v>
       </c>
     </row>
@@ -3307,7 +3310,7 @@
       <c r="F93" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G93" s="14">
+      <c r="G93" s="13">
         <v>24000</v>
       </c>
     </row>
@@ -3331,7 +3334,7 @@
       <c r="F94" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G94" s="14">
+      <c r="G94" s="13">
         <v>250000</v>
       </c>
     </row>
@@ -3355,7 +3358,7 @@
       <c r="F95" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G95" s="14" t="s">
+      <c r="G95" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3379,7 +3382,7 @@
       <c r="F96" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G96" s="14" t="s">
+      <c r="G96" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3403,7 +3406,7 @@
       <c r="F97" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G97" s="14" t="s">
+      <c r="G97" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3427,7 +3430,7 @@
       <c r="F98" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G98" s="14" t="s">
+      <c r="G98" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3451,7 +3454,7 @@
       <c r="F99" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G99" s="14">
+      <c r="G99" s="13">
         <v>1300</v>
       </c>
     </row>
@@ -3475,7 +3478,7 @@
       <c r="F100" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G100" s="14">
+      <c r="G100" s="13">
         <v>1000</v>
       </c>
     </row>
@@ -3499,7 +3502,7 @@
       <c r="F101" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G101" s="14">
+      <c r="G101" s="13">
         <v>13000</v>
       </c>
     </row>
@@ -3523,7 +3526,7 @@
       <c r="F102" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G102" s="14">
+      <c r="G102" s="13">
         <v>27000</v>
       </c>
     </row>
@@ -3547,7 +3550,7 @@
       <c r="F103" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G103" s="14">
+      <c r="G103" s="13">
         <v>94500</v>
       </c>
     </row>
@@ -3571,7 +3574,7 @@
       <c r="F104" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G104" s="14">
+      <c r="G104" s="13">
         <v>1650</v>
       </c>
     </row>
@@ -3595,7 +3598,7 @@
       <c r="F105" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G105" s="14">
+      <c r="G105" s="13">
         <v>365000</v>
       </c>
     </row>
@@ -3619,7 +3622,7 @@
       <c r="F106" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G106" s="14">
+      <c r="G106" s="13">
         <v>14000</v>
       </c>
     </row>
@@ -3643,7 +3646,7 @@
       <c r="F107" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G107" s="14">
+      <c r="G107" s="13">
         <v>4000</v>
       </c>
     </row>
@@ -3667,7 +3670,7 @@
       <c r="F108" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G108" s="14">
+      <c r="G108" s="13">
         <v>12000</v>
       </c>
     </row>
@@ -3691,7 +3694,7 @@
       <c r="F109" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G109" s="14">
+      <c r="G109" s="13">
         <v>26000</v>
       </c>
     </row>
@@ -3715,7 +3718,7 @@
       <c r="F110" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="G110" s="14">
+      <c r="G110" s="13">
         <v>17500</v>
       </c>
     </row>
@@ -3739,7 +3742,7 @@
       <c r="F111" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="G111" s="14" t="s">
+      <c r="G111" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3763,7 +3766,7 @@
       <c r="F112" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G112" s="14">
+      <c r="G112" s="13">
         <v>2550</v>
       </c>
     </row>
@@ -3787,7 +3790,7 @@
       <c r="F113" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G113" s="14" t="s">
+      <c r="G113" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3811,7 +3814,7 @@
       <c r="F114" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G114" s="14" t="s">
+      <c r="G114" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3835,7 +3838,7 @@
       <c r="F115" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G115" s="15" t="s">
+      <c r="G115" s="14" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3859,7 +3862,7 @@
       <c r="F116" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G116" s="15">
+      <c r="G116" s="14">
         <v>137500</v>
       </c>
     </row>
@@ -3883,7 +3886,7 @@
       <c r="F117" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G117" s="15" t="s">
+      <c r="G117" s="14" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3907,7 +3910,79 @@
       <c r="F118" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G118" s="15" t="s">
+      <c r="G118" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" s="15" t="str">
+        <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
+        <v>215-C1</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D119" s="9">
+        <v>215</v>
+      </c>
+      <c r="E119" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F119" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G119" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" s="15" t="str">
+        <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
+        <v>215-C2</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D120" s="9">
+        <v>215</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F120" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G120" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" s="15" t="str">
+        <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
+        <v>215-C3</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D121" s="9">
+        <v>215</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F121" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G121" s="14" t="s">
         <v>15</v>
       </c>
     </row>

--- a/data/pseud_epi_growth_2024summer_R.xlsx
+++ b/data/pseud_epi_growth_2024summer_R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384DE06F-B40F-AF47-AD93-B4856DDEFA2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EA82E6-0089-804C-AF5B-4D38C7D65743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="0" windowWidth="27720" windowHeight="16940" xr2:uid="{531AFAF7-A9B0-284D-AB86-9C10EDD001D7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="40">
   <si>
     <t>A1</t>
   </si>
@@ -154,6 +154,9 @@
   <si>
     <t>2-9</t>
   </si>
+  <si>
+    <t>2-10</t>
+  </si>
 </sst>
 </file>
 
@@ -194,7 +197,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -313,11 +316,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -361,7 +375,28 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -728,8 +763,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{473B24F8-CE6A-DD41-8057-5706F46969E7}" name="Table3" displayName="Table3" ref="A1:G121" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
-  <autoFilter ref="A1:G121" xr:uid="{473B24F8-CE6A-DD41-8057-5706F46969E7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{473B24F8-CE6A-DD41-8057-5706F46969E7}" name="Table3" displayName="Table3" ref="A1:G130" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="A1:G130" xr:uid="{473B24F8-CE6A-DD41-8057-5706F46969E7}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G118">
     <sortCondition ref="A1:A118"/>
   </sortState>
@@ -1065,10 +1100,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC33927-75BD-A144-A8B4-F2C10C3589D3}">
-  <dimension ref="A1:G121"/>
+  <dimension ref="A1:G133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="H111" sqref="H111"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="H138" sqref="H138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="43.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3915,7 +3950,7 @@
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" s="15" t="str">
+      <c r="A119" s="8" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>215-C1</v>
       </c>
@@ -3939,7 +3974,7 @@
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A120" s="15" t="str">
+      <c r="A120" s="8" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>215-C2</v>
       </c>
@@ -3963,7 +3998,7 @@
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="15" t="str">
+      <c r="A121" s="8" t="str">
         <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>215-C3</v>
       </c>
@@ -3985,6 +4020,249 @@
       <c r="G121" s="14" t="s">
         <v>15</v>
       </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" s="15" t="str">
+        <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
+        <v>6-A1</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D122" s="2">
+        <v>6</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F122" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="G122" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" s="15" t="str">
+        <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
+        <v>6-A2</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D123" s="2">
+        <v>6</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F123" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G123" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" s="15" t="str">
+        <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
+        <v>6-A3</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D124" s="2">
+        <v>6</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F124" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G124" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="15" t="str">
+        <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
+        <v>6-B1</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D125" s="2">
+        <v>6</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F125" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G125" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="15" t="str">
+        <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
+        <v>6-B2</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D126" s="2">
+        <v>6</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F126" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="G126" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="15" t="str">
+        <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
+        <v>6-B3</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D127" s="2">
+        <v>6</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F127" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G127" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" s="15" t="str">
+        <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
+        <v>6-C1</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D128" s="2">
+        <v>6</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F128" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G128" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" s="15" t="str">
+        <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
+        <v>6-C2</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D129" s="2">
+        <v>6</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F129" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G129" s="17">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" s="16" t="str">
+        <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
+        <v>6-C3</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D130" s="9">
+        <v>6</v>
+      </c>
+      <c r="E130" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F130" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G130" s="17">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" s="19"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="20"/>
+      <c r="D131" s="20"/>
+      <c r="E131" s="20"/>
+      <c r="F131" s="21"/>
+      <c r="G131" s="22"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" s="19"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="20"/>
+      <c r="D132" s="20"/>
+      <c r="E132" s="20"/>
+      <c r="F132" s="21"/>
+      <c r="G132" s="22"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" s="19"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="20"/>
+      <c r="D133" s="20"/>
+      <c r="E133" s="20"/>
+      <c r="F133" s="21"/>
+      <c r="G133" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/data/pseud_epi_growth_2024summer_R.xlsx
+++ b/data/pseud_epi_growth_2024summer_R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EA82E6-0089-804C-AF5B-4D38C7D65743}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA7DC35-27BE-3841-A00F-FCADEAA3D026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="0" windowWidth="27720" windowHeight="16940" xr2:uid="{531AFAF7-A9B0-284D-AB86-9C10EDD001D7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="40">
   <si>
     <t>A1</t>
   </si>
@@ -331,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -375,28 +375,19 @@
     <xf numFmtId="11" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1102,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC33927-75BD-A144-A8B4-F2C10C3589D3}">
   <dimension ref="A1:G133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="H138" sqref="H138"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="G134" sqref="G134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="43.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4022,9 +4013,9 @@
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="15" t="str">
-        <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>6-A1</v>
+      <c r="A122" s="6" t="str">
+        <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
+        <v>pisi-A1</v>
       </c>
       <c r="B122" s="9" t="s">
         <v>13</v>
@@ -4032,8 +4023,8 @@
       <c r="C122" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D122" s="2">
-        <v>6</v>
+      <c r="D122" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>17</v>
@@ -4046,9 +4037,9 @@
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="15" t="str">
-        <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>6-A2</v>
+      <c r="A123" s="6" t="str">
+        <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
+        <v>pisi-A2</v>
       </c>
       <c r="B123" s="9" t="s">
         <v>13</v>
@@ -4056,8 +4047,8 @@
       <c r="C123" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D123" s="2">
-        <v>6</v>
+      <c r="D123" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>17</v>
@@ -4070,9 +4061,9 @@
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" s="15" t="str">
-        <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>6-A3</v>
+      <c r="A124" s="6" t="str">
+        <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
+        <v>pisi-A3</v>
       </c>
       <c r="B124" s="9" t="s">
         <v>13</v>
@@ -4080,8 +4071,8 @@
       <c r="C124" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D124" s="2">
-        <v>6</v>
+      <c r="D124" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>17</v>
@@ -4094,9 +4085,9 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" s="15" t="str">
-        <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>6-B1</v>
+      <c r="A125" s="6" t="str">
+        <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
+        <v>pisi-B1</v>
       </c>
       <c r="B125" s="9" t="s">
         <v>13</v>
@@ -4104,8 +4095,8 @@
       <c r="C125" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D125" s="2">
-        <v>6</v>
+      <c r="D125" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>17</v>
@@ -4118,9 +4109,9 @@
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" s="15" t="str">
-        <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>6-B2</v>
+      <c r="A126" s="6" t="str">
+        <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
+        <v>pisi-B2</v>
       </c>
       <c r="B126" s="9" t="s">
         <v>13</v>
@@ -4128,8 +4119,8 @@
       <c r="C126" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D126" s="2">
-        <v>6</v>
+      <c r="D126" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>17</v>
@@ -4142,9 +4133,9 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" s="15" t="str">
-        <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>6-B3</v>
+      <c r="A127" s="6" t="str">
+        <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
+        <v>pisi-B3</v>
       </c>
       <c r="B127" s="9" t="s">
         <v>13</v>
@@ -4152,8 +4143,8 @@
       <c r="C127" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D127" s="2">
-        <v>6</v>
+      <c r="D127" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>17</v>
@@ -4166,9 +4157,9 @@
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="15" t="str">
-        <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>6-C1</v>
+      <c r="A128" s="6" t="str">
+        <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
+        <v>pisi-C1</v>
       </c>
       <c r="B128" s="9" t="s">
         <v>13</v>
@@ -4176,8 +4167,8 @@
       <c r="C128" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D128" s="2">
-        <v>6</v>
+      <c r="D128" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>17</v>
@@ -4190,9 +4181,9 @@
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129" s="15" t="str">
-        <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>6-C2</v>
+      <c r="A129" s="6" t="str">
+        <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
+        <v>pisi-C2</v>
       </c>
       <c r="B129" s="9" t="s">
         <v>13</v>
@@ -4200,8 +4191,8 @@
       <c r="C129" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D129" s="2">
-        <v>6</v>
+      <c r="D129" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>17</v>
@@ -4209,14 +4200,14 @@
       <c r="F129" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G129" s="17">
+      <c r="G129" s="15">
         <v>3250</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130" s="16" t="str">
-        <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>6-C3</v>
+      <c r="A130" s="8" t="str">
+        <f>CONCATENATE(Table3[[#This Row],[strain]],"-",Table3[[#This Row],[plant_rep]])</f>
+        <v>pisi-C3</v>
       </c>
       <c r="B130" s="9" t="s">
         <v>13</v>
@@ -4224,45 +4215,45 @@
       <c r="C130" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D130" s="9">
-        <v>6</v>
+      <c r="D130" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="E130" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F130" s="18" t="s">
+      <c r="F130" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G130" s="17">
+      <c r="G130" s="15">
         <v>3300</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131" s="19"/>
-      <c r="B131" s="20"/>
-      <c r="C131" s="20"/>
-      <c r="D131" s="20"/>
-      <c r="E131" s="20"/>
-      <c r="F131" s="21"/>
-      <c r="G131" s="22"/>
+      <c r="A131" s="17"/>
+      <c r="B131" s="17"/>
+      <c r="C131" s="17"/>
+      <c r="D131" s="17"/>
+      <c r="E131" s="17"/>
+      <c r="F131" s="18"/>
+      <c r="G131" s="19"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132" s="19"/>
-      <c r="B132" s="20"/>
-      <c r="C132" s="20"/>
-      <c r="D132" s="20"/>
-      <c r="E132" s="20"/>
-      <c r="F132" s="21"/>
-      <c r="G132" s="22"/>
+      <c r="A132" s="17"/>
+      <c r="B132" s="17"/>
+      <c r="C132" s="17"/>
+      <c r="D132" s="17"/>
+      <c r="E132" s="17"/>
+      <c r="F132" s="18"/>
+      <c r="G132" s="19"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133" s="19"/>
-      <c r="B133" s="20"/>
-      <c r="C133" s="20"/>
-      <c r="D133" s="20"/>
-      <c r="E133" s="20"/>
-      <c r="F133" s="21"/>
-      <c r="G133" s="22"/>
+      <c r="A133" s="17"/>
+      <c r="B133" s="17"/>
+      <c r="C133" s="17"/>
+      <c r="D133" s="17"/>
+      <c r="E133" s="17"/>
+      <c r="F133" s="18"/>
+      <c r="G133" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/data/pseud_epi_growth_2024summer_R.xlsx
+++ b/data/pseud_epi_growth_2024summer_R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5AC5DE9-897B-F049-9CFA-97496067B64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C65BD8D-178D-7346-AB17-F2B7C893D8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="0" windowWidth="27720" windowHeight="16940" xr2:uid="{531AFAF7-A9B0-284D-AB86-9C10EDD001D7}"/>
   </bookViews>
@@ -1042,7 +1042,7 @@
   <dimension ref="A1:F133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="43.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/pseud_epi_growth_2024summer_R.xlsx
+++ b/data/pseud_epi_growth_2024summer_R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C65BD8D-178D-7346-AB17-F2B7C893D8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A70E8D-8A89-8A43-B017-6C3A75C0537C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="0" windowWidth="27720" windowHeight="16940" xr2:uid="{531AFAF7-A9B0-284D-AB86-9C10EDD001D7}"/>
   </bookViews>
@@ -1041,8 +1041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC33927-75BD-A144-A8B4-F2C10C3589D3}">
   <dimension ref="A1:F133"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="43.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/pseud_epi_growth_2024summer_R.xlsx
+++ b/data/pseud_epi_growth_2024summer_R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A70E8D-8A89-8A43-B017-6C3A75C0537C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBAAF52-FE1F-564F-B82A-1CDF5EE148BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="0" windowWidth="27720" windowHeight="16940" xr2:uid="{531AFAF7-A9B0-284D-AB86-9C10EDD001D7}"/>
   </bookViews>

--- a/data/pseud_epi_growth_2024summer_R.xlsx
+++ b/data/pseud_epi_growth_2024summer_R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBAAF52-FE1F-564F-B82A-1CDF5EE148BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C948FB-895E-A04D-AC07-C6EDACB014FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="0" windowWidth="27720" windowHeight="16940" xr2:uid="{531AFAF7-A9B0-284D-AB86-9C10EDD001D7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="37">
   <si>
     <t>A1</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>Cit7</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>2-4</t>
@@ -144,6 +141,12 @@
   </si>
   <si>
     <t>treatment</t>
+  </si>
+  <si>
+    <t>CFU_per_10_leafdiscs_log_10</t>
+  </si>
+  <si>
+    <t>&lt;3</t>
   </si>
 </sst>
 </file>
@@ -382,7 +385,47 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -703,20 +746,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{473B24F8-CE6A-DD41-8057-5706F46969E7}" name="Table3" displayName="Table3" ref="A1:F130" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="A1:F130" xr:uid="{473B24F8-CE6A-DD41-8057-5706F46969E7}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F130">
-    <sortCondition ref="D1:D130"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{473B24F8-CE6A-DD41-8057-5706F46969E7}" name="Table3" displayName="Table3" ref="A1:G127" totalsRowShown="0" headerRowDxfId="11" dataDxfId="9" headerRowBorderDxfId="10" tableBorderDxfId="8" totalsRowBorderDxfId="7">
+  <autoFilter ref="A1:G127" xr:uid="{473B24F8-CE6A-DD41-8057-5706F46969E7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F127">
+    <sortCondition ref="D1:D127"/>
   </sortState>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{79B774C7-19E1-E44C-93A3-534AA1EC2EC5}" name="sample" dataDxfId="5">
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{79B774C7-19E1-E44C-93A3-534AA1EC2EC5}" name="sample" dataDxfId="6">
       <calculatedColumnFormula>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{BDF1DD58-4ACB-A24F-B5BD-72CD9F931025}" name="person" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{B8055292-21AA-6048-B0E9-DCD4D41BE2D0}" name="block" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{ED985B81-A5C7-1C48-A9FC-68F50AFED322}" name="treatment" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{111388D3-8650-BB4E-BF6C-36D07A696611}" name="plant_rep" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{0EFE4EF2-B0EE-814D-B3F4-2C291DA83834}" name="CFU_per_10_leafdiscs" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{BDF1DD58-4ACB-A24F-B5BD-72CD9F931025}" name="person" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{B8055292-21AA-6048-B0E9-DCD4D41BE2D0}" name="block" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{ED985B81-A5C7-1C48-A9FC-68F50AFED322}" name="treatment" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{111388D3-8650-BB4E-BF6C-36D07A696611}" name="plant_rep" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{0EFE4EF2-B0EE-814D-B3F4-2C291DA83834}" name="CFU_per_10_leafdiscs" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{DBE11516-78DE-2E43-BD9B-A880ECE999A6}" name="CFU_per_10_leafdiscs_log_10" dataDxfId="0">
+      <calculatedColumnFormula>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1039,10 +1085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC33927-75BD-A144-A8B4-F2C10C3589D3}">
-  <dimension ref="A1:F133"/>
+  <dimension ref="A1:G130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="G103" sqref="G103"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="F134" sqref="F134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="43.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1056,7 +1102,7 @@
     <col min="7" max="16384" width="43.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
@@ -1067,7 +1113,7 @@
         <v>8</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>7</v>
@@ -1075,8 +1121,11 @@
       <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>194-A1</v>
@@ -1085,7 +1134,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" s="2">
         <v>194</v>
@@ -1096,8 +1145,12 @@
       <c r="F2" s="13">
         <v>40000</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="4">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>4.6020599913279625</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>194-A2</v>
@@ -1106,7 +1159,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2">
         <v>194</v>
@@ -1117,8 +1170,12 @@
       <c r="F3" s="13">
         <v>57000</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>4.7558748556724915</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>194-A3</v>
@@ -1127,7 +1184,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2">
         <v>194</v>
@@ -1138,8 +1195,12 @@
       <c r="F4" s="13">
         <v>136500</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>5.1351326513767752</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>194-B1</v>
@@ -1148,7 +1209,7 @@
         <v>11</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="2">
         <v>194</v>
@@ -1159,8 +1220,12 @@
       <c r="F5" s="13">
         <v>60000</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>4.7781512503836439</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>194-B2</v>
@@ -1169,7 +1234,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="2">
         <v>194</v>
@@ -1180,8 +1245,12 @@
       <c r="F6" s="13">
         <v>146000</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>5.1643528557844371</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>194-B3</v>
@@ -1190,7 +1259,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2">
         <v>194</v>
@@ -1201,8 +1270,12 @@
       <c r="F7" s="13">
         <v>118750</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>5.0746336182969038</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>194-C1</v>
@@ -1211,19 +1284,23 @@
         <v>11</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="2">
         <v>194</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="13">
         <v>230000</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>5.3617278360175931</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>194-C2</v>
@@ -1232,19 +1309,23 @@
         <v>11</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="2">
         <v>194</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" s="13">
         <v>505000</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>5.7032913781186609</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>194-C3</v>
@@ -1253,19 +1334,23 @@
         <v>11</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="2">
         <v>194</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" s="13">
         <v>115000</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>5.0606978403536118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>200-A1</v>
@@ -1274,7 +1359,7 @@
         <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="2">
         <v>200</v>
@@ -1285,8 +1370,12 @@
       <c r="F11" s="13">
         <v>138800</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>5.1423894661188365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>200-A2</v>
@@ -1295,7 +1384,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2">
         <v>200</v>
@@ -1306,8 +1395,12 @@
       <c r="F12" s="13">
         <v>139300</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>5.1439511164239633</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>200-A3</v>
@@ -1316,7 +1409,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="2">
         <v>200</v>
@@ -1327,8 +1420,12 @@
       <c r="F13" s="13">
         <v>395000</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>5.5965970956264606</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>200-B1</v>
@@ -1337,7 +1434,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="2">
         <v>200</v>
@@ -1348,8 +1445,12 @@
       <c r="F14" s="13">
         <v>300000</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>5.4771212547196626</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>200-B2</v>
@@ -1358,7 +1459,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="2">
         <v>200</v>
@@ -1369,8 +1470,12 @@
       <c r="F15" s="13">
         <v>390000</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>5.5910646070264995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>200-B3</v>
@@ -1379,7 +1484,7 @@
         <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="2">
         <v>200</v>
@@ -1390,8 +1495,12 @@
       <c r="F16" s="13">
         <v>12825</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>4.1080573737838542</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>200-C1</v>
@@ -1400,19 +1509,23 @@
         <v>11</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="2">
         <v>200</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F17" s="13">
         <v>610000</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>5.7853298350107671</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>200-C2</v>
@@ -1421,19 +1534,23 @@
         <v>11</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="2">
         <v>200</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F18" s="13">
         <v>195000</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>5.2900346113625183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>200-C3</v>
@@ -1442,19 +1559,23 @@
         <v>11</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D19" s="2">
         <v>200</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F19" s="13">
         <v>170000</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>5.2304489213782741</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>204-A1</v>
@@ -1474,8 +1595,12 @@
       <c r="F20" s="13">
         <v>8900</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>3.9493900066449128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>204-A2</v>
@@ -1495,8 +1620,12 @@
       <c r="F21" s="13">
         <v>460000</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>5.6627578316815743</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>204-A3</v>
@@ -1516,8 +1645,12 @@
       <c r="F22" s="13">
         <v>182500</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>5.2612628687924934</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>204-B1</v>
@@ -1526,7 +1659,7 @@
         <v>11</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D23" s="2">
         <v>204</v>
@@ -1537,8 +1670,12 @@
       <c r="F23" s="13">
         <v>5200</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>3.716003343634799</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>204-B2</v>
@@ -1547,7 +1684,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" s="2">
         <v>204</v>
@@ -1558,8 +1695,11 @@
       <c r="F24" s="13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>204-B3</v>
@@ -1568,7 +1708,7 @@
         <v>11</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" s="2">
         <v>204</v>
@@ -1579,8 +1719,12 @@
       <c r="F25" s="13">
         <v>495000</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>5.6946051989335684</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>204-C1</v>
@@ -1589,19 +1733,23 @@
         <v>11</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="2">
         <v>204</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F26" s="13">
         <v>97000</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>4.9867717342662452</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>204-C2</v>
@@ -1610,19 +1758,23 @@
         <v>11</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" s="2">
         <v>204</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F27" s="13">
         <v>114000</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>5.0569048513364727</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>204-C3</v>
@@ -1631,19 +1783,23 @@
         <v>11</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D28" s="2">
         <v>204</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F28" s="13">
         <v>132500</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>5.1222158782728267</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>205-A1</v>
@@ -1663,8 +1819,12 @@
       <c r="F29" s="13">
         <v>110000</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>5.0413926851582254</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>205-A2</v>
@@ -1684,8 +1844,12 @@
       <c r="F30" s="13">
         <v>170000</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>5.2304489213782741</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>205-A3</v>
@@ -1705,8 +1869,11 @@
       <c r="F31" s="13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>205-B1</v>
@@ -1726,8 +1893,11 @@
       <c r="F32" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>205-B2</v>
@@ -1747,8 +1917,12 @@
       <c r="F33" s="13">
         <v>31000</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>4.4913616938342731</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>205-B3</v>
@@ -1768,8 +1942,12 @@
       <c r="F34" s="13">
         <v>30000</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>4.4771212547196626</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>205-C1</v>
@@ -1778,19 +1956,23 @@
         <v>11</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D35" s="12">
         <v>205</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F35" s="13">
         <v>675000</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>5.8293037728310253</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>205-C2</v>
@@ -1799,19 +1981,23 @@
         <v>11</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D36" s="12">
         <v>205</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F36" s="13">
         <v>180000</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>5.2552725051033065</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>205-C3</v>
@@ -1820,19 +2006,23 @@
         <v>11</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D37" s="12">
         <v>205</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F37" s="13">
         <v>465000</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>5.6674529528899535</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>215-A1</v>
@@ -1852,8 +2042,11 @@
       <c r="F38" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>215-A2</v>
@@ -1873,8 +2066,11 @@
       <c r="F39" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>215-A3</v>
@@ -1894,8 +2090,11 @@
       <c r="F40" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>215-B1</v>
@@ -1915,8 +2114,11 @@
       <c r="F41" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>215-B2</v>
@@ -1936,8 +2138,11 @@
       <c r="F42" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>215-B3</v>
@@ -1957,8 +2162,11 @@
       <c r="F43" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>215-C1</v>
@@ -1967,19 +2175,22 @@
         <v>11</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D44" s="2">
         <v>215</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F44" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>215-C2</v>
@@ -1988,19 +2199,22 @@
         <v>11</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D45" s="2">
         <v>215</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F45" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>215-C3</v>
@@ -2009,19 +2223,22 @@
         <v>11</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D46" s="2">
         <v>215</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F46" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>216-A1</v>
@@ -2041,8 +2258,12 @@
       <c r="F47" s="13">
         <v>22000</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>4.3424226808222066</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>216-A2</v>
@@ -2062,8 +2283,12 @@
       <c r="F48" s="13">
         <v>2000</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>3.3010299956639813</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>216-A3</v>
@@ -2083,8 +2308,11 @@
       <c r="F49" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>216-B1</v>
@@ -2104,8 +2332,11 @@
       <c r="F50" s="13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G50" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>216-B2</v>
@@ -2125,8 +2356,12 @@
       <c r="F51" s="13">
         <v>4700</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>3.6720978579357175</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>216-B3</v>
@@ -2146,8 +2381,12 @@
       <c r="F52" s="13">
         <v>3900</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G52" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>3.5910646070264991</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>216-C1</v>
@@ -2162,13 +2401,17 @@
         <v>216</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F53" s="13">
         <v>4700</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G53" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>3.6720978579357175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>216-C2</v>
@@ -2183,13 +2426,17 @@
         <v>216</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F54" s="13">
         <v>15000</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>4.1760912590556813</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>216-C3</v>
@@ -2204,13 +2451,16 @@
         <v>216</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F55" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>220-A1</v>
@@ -2230,8 +2480,12 @@
       <c r="F56" s="13">
         <v>40000</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G56" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>4.6020599913279625</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>220-A2</v>
@@ -2251,8 +2505,12 @@
       <c r="F57" s="13">
         <v>36000</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G57" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>4.5563025007672868</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>220-A3</v>
@@ -2272,8 +2530,12 @@
       <c r="F58" s="13">
         <v>29000</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G58" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>4.4623979978989565</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>220-B1</v>
@@ -2293,8 +2555,12 @@
       <c r="F59" s="13">
         <v>300000</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G59" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>5.4771212547196626</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>220-B2</v>
@@ -2314,8 +2580,11 @@
       <c r="F60" s="13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G60" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>220-B3</v>
@@ -2335,8 +2604,12 @@
       <c r="F61" s="13">
         <v>2800</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G61" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>3.4471580313422194</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>220-C1</v>
@@ -2351,13 +2624,17 @@
         <v>220</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F62" s="13">
         <v>330000</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G62" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>5.5185139398778871</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>220-C2</v>
@@ -2372,13 +2649,17 @@
         <v>220</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F63" s="13">
         <v>470000</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G63" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>5.6720978579357171</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>220-C3</v>
@@ -2393,13 +2674,16 @@
         <v>220</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F64" s="13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G64" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>221-A1</v>
@@ -2408,7 +2692,7 @@
         <v>11</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D65" s="2">
         <v>221</v>
@@ -2419,8 +2703,12 @@
       <c r="F65" s="13">
         <v>345000</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G65" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>5.5378190950732744</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>221-A2</v>
@@ -2429,7 +2717,7 @@
         <v>11</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D66" s="2">
         <v>221</v>
@@ -2440,8 +2728,12 @@
       <c r="F66" s="13">
         <v>350000</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G66" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>5.5440680443502757</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>221-A3</v>
@@ -2450,7 +2742,7 @@
         <v>11</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D67" s="2">
         <v>221</v>
@@ -2461,8 +2753,12 @@
       <c r="F67" s="13">
         <v>61000</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G67" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>4.7853298350107671</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>221-B1</v>
@@ -2471,7 +2767,7 @@
         <v>11</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D68" s="2">
         <v>221</v>
@@ -2482,8 +2778,12 @@
       <c r="F68" s="13">
         <v>210000</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G68" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>5.3222192947339195</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>221-B2</v>
@@ -2492,7 +2792,7 @@
         <v>11</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D69" s="2">
         <v>221</v>
@@ -2503,8 +2803,12 @@
       <c r="F69" s="13">
         <v>360000</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G69" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>5.5563025007672868</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>221-B3</v>
@@ -2513,7 +2817,7 @@
         <v>11</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D70" s="2">
         <v>221</v>
@@ -2524,8 +2828,12 @@
       <c r="F70" s="13">
         <v>19500</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G70" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>4.2900346113625183</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>221-C1</v>
@@ -2534,19 +2842,23 @@
         <v>11</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D71" s="2">
         <v>221</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F71" s="13">
         <v>120500</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G71" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>5.0809870469108871</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>221-C2</v>
@@ -2555,19 +2867,23 @@
         <v>11</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D72" s="2">
         <v>221</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F72" s="13">
         <v>220000</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G72" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>5.3424226808222066</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>221-C3</v>
@@ -2576,19 +2892,23 @@
         <v>11</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D73" s="2">
         <v>221</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F73" s="13">
         <v>650000</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G73" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>5.8129133566428557</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>227-A1</v>
@@ -2608,8 +2928,12 @@
       <c r="F74" s="13">
         <v>22000</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G74" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>4.3424226808222066</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>227-A2</v>
@@ -2629,8 +2953,11 @@
       <c r="F75" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G75" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>227-A3</v>
@@ -2650,8 +2977,11 @@
       <c r="F76" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G76" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>227-B1</v>
@@ -2671,8 +3001,12 @@
       <c r="F77" s="13">
         <v>87000</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G77" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>4.9395192526186182</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>227-B2</v>
@@ -2692,8 +3026,12 @@
       <c r="F78" s="13">
         <v>2500</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G78" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>3.3979400086720375</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>227-B3</v>
@@ -2713,8 +3051,12 @@
       <c r="F79" s="13">
         <v>11050</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G79" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>4.0433622780211298</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>227-C1</v>
@@ -2729,13 +3071,17 @@
         <v>227</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F80" s="13">
         <v>144000</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G80" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>5.1583624920952493</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>227-C2</v>
@@ -2750,13 +3096,17 @@
         <v>227</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F81" s="13">
         <v>470000</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G81" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>5.6720978579357171</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>227-C3</v>
@@ -2771,13 +3121,17 @@
         <v>227</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F82" s="13">
         <v>7300</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G82" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>3.8633228601204559</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>228-A1</v>
@@ -2797,8 +3151,12 @@
       <c r="F83" s="13">
         <v>42000</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G83" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>4.6232492903979008</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>228-A2</v>
@@ -2818,8 +3176,11 @@
       <c r="F84" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G84" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>228-A3</v>
@@ -2839,8 +3200,12 @@
       <c r="F85" s="13">
         <v>38000</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G85" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>4.5797835966168101</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>228-B1</v>
@@ -2860,8 +3225,11 @@
       <c r="F86" s="13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G86" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>228-B2</v>
@@ -2881,8 +3249,12 @@
       <c r="F87" s="13">
         <v>23000</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G87" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>4.3617278360175931</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>228-B3</v>
@@ -2902,8 +3274,12 @@
       <c r="F88" s="13">
         <v>65000</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G88" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>4.8129133566428557</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>228-C1</v>
@@ -2918,13 +3294,17 @@
         <v>228</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F89" s="13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G89" s="2" t="e">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>228-C2</v>
@@ -2939,13 +3319,17 @@
         <v>228</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F90" s="13">
         <v>12000</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G90" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>4.0791812460476251</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>228-C3</v>
@@ -2960,13 +3344,16 @@
         <v>228</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F91" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G91" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>228-D1</v>
@@ -2981,13 +3368,16 @@
         <v>228</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F92" s="13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G92" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>228-D2</v>
@@ -3002,13 +3392,16 @@
         <v>228</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F93" s="13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G93" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>228-D3</v>
@@ -3023,13 +3416,16 @@
         <v>228</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F94" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G94" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>B728a-A1</v>
@@ -3041,7 +3437,7 @@
         <v>4</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E95" s="11" t="s">
         <v>0</v>
@@ -3049,8 +3445,12 @@
       <c r="F95" s="13">
         <v>360000</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G95" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>5.5563025007672868</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>B728a-A2</v>
@@ -3062,7 +3462,7 @@
         <v>4</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E96" s="11" t="s">
         <v>1</v>
@@ -3070,8 +3470,12 @@
       <c r="F96" s="13">
         <v>24000</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G96" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>4.3802112417116064</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>B728a-A3</v>
@@ -3083,7 +3487,7 @@
         <v>4</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E97" s="11" t="s">
         <v>2</v>
@@ -3091,8 +3495,12 @@
       <c r="F97" s="13">
         <v>250000</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G97" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>5.3979400086720375</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>B728a-B1</v>
@@ -3104,7 +3512,7 @@
         <v>8</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E98" s="10" t="s">
         <v>3</v>
@@ -3112,8 +3520,11 @@
       <c r="F98" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G98" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>B728a-B2</v>
@@ -3125,7 +3536,7 @@
         <v>8</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E99" s="11" t="s">
         <v>4</v>
@@ -3133,8 +3544,11 @@
       <c r="F99" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G99" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>B728a-B3</v>
@@ -3146,7 +3560,7 @@
         <v>8</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E100" s="11" t="s">
         <v>5</v>
@@ -3154,8 +3568,11 @@
       <c r="F100" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G100" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>B728a-C1</v>
@@ -3167,16 +3584,19 @@
         <v>8</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E101" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F101" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G101" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>B728a-C2</v>
@@ -3188,16 +3608,20 @@
         <v>8</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F102" s="13">
         <v>1300</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G102" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>3.1139433523068369</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>B728a-C3</v>
@@ -3209,16 +3633,20 @@
         <v>8</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E103" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F103" s="13">
         <v>1000</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G103" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>Cit7-A1</v>
@@ -3238,8 +3666,12 @@
       <c r="F104" s="13">
         <v>13000</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G104" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>4.1139433523068369</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>Cit7-A2</v>
@@ -3259,8 +3691,12 @@
       <c r="F105" s="13">
         <v>27000</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G105" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>4.4313637641589869</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>Cit7-A3</v>
@@ -3280,8 +3716,12 @@
       <c r="F106" s="13">
         <v>94500</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G106" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>4.9754318085092626</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>Cit7-B1</v>
@@ -3301,8 +3741,12 @@
       <c r="F107" s="13">
         <v>1650</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G107" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>3.2174839442139063</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>Cit7-B2</v>
@@ -3322,8 +3766,12 @@
       <c r="F108" s="13">
         <v>365000</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G108" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>5.5622928644564746</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>Cit7-B3</v>
@@ -3343,8 +3791,12 @@
       <c r="F109" s="13">
         <v>14000</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G109" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>4.1461280356782382</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>Cit7-C1</v>
@@ -3353,19 +3805,23 @@
         <v>11</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F110" s="13">
         <v>4000</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G110" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>3.6020599913279625</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>Cit7-C2</v>
@@ -3374,19 +3830,23 @@
         <v>11</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E111" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F111" s="13">
         <v>12000</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G111" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>4.0791812460476251</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>Cit7-C3</v>
@@ -3395,19 +3855,23 @@
         <v>11</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F112" s="13">
         <v>26000</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G112" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>4.4149733479708182</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>pisi-A1</v>
@@ -3416,10 +3880,10 @@
         <v>11</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E113" s="11" t="s">
         <v>0</v>
@@ -3427,8 +3891,12 @@
       <c r="F113" s="13">
         <v>17500</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G113" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>4.2430380486862944</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>pisi-A2</v>
@@ -3437,10 +3905,10 @@
         <v>11</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E114" s="11" t="s">
         <v>1</v>
@@ -3448,8 +3916,11 @@
       <c r="F114" s="13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G114" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="8" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
         <v>pisi-A3</v>
@@ -3458,10 +3929,10 @@
         <v>11</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E115" s="11" t="s">
         <v>2</v>
@@ -3469,345 +3940,325 @@
       <c r="F115" s="14">
         <v>2550</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G115" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>3.406540180433955</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="8" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>pisi-B1</v>
+        <v>pisi-C1</v>
       </c>
       <c r="B116" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C116" s="9" t="s">
+      <c r="C116" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D116" s="2" t="s">
-        <v>28</v>
+      <c r="D116" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="F116" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="F116" s="14">
+        <v>137500</v>
+      </c>
+      <c r="G116" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>5.1383026981662816</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="8" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>pisi-B2</v>
+        <v>pisi-C2</v>
       </c>
       <c r="B117" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C117" s="9" t="s">
+      <c r="C117" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D117" s="2" t="s">
-        <v>28</v>
+      <c r="D117" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="F117" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="8" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>pisi-B3</v>
+        <v>pisi-C3</v>
       </c>
       <c r="B118" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C118" s="9" t="s">
+      <c r="C118" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D118" s="2" t="s">
-        <v>28</v>
+      <c r="D118" s="9" t="s">
+        <v>27</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="F118" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="8" t="str">
-        <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>pisi-C1</v>
+        <v>13</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" s="6" t="str">
+        <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
+        <v>pisi-A1</v>
       </c>
       <c r="B119" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C119" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D119" s="9" t="s">
-        <v>28</v>
+      <c r="C119" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F119" s="14">
-        <v>137500</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" s="8" t="str">
-        <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>pisi-C2</v>
+        <v>0</v>
+      </c>
+      <c r="F119" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" s="6" t="str">
+        <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
+        <v>pisi-A2</v>
       </c>
       <c r="B120" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C120" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>28</v>
+      <c r="C120" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="E120" s="11" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F120" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="8" t="str">
-        <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>pisi-C3</v>
+      <c r="G120" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" s="6" t="str">
+        <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
+        <v>pisi-A3</v>
       </c>
       <c r="B121" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C121" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D121" s="9" t="s">
-        <v>28</v>
+      <c r="C121" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="F121" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G121" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>pisi-A1</v>
+        <v>pisi-B1</v>
       </c>
       <c r="B122" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C122" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E122" s="11" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F122" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G122" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>pisi-A2</v>
+        <v>pisi-B2</v>
       </c>
       <c r="B123" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C123" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F123" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G123" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>pisi-A3</v>
+        <v>pisi-B3</v>
       </c>
       <c r="B124" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C124" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F124" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G124" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>pisi-B1</v>
+        <v>pisi-C1</v>
       </c>
       <c r="B125" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C125" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F125" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G125" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="str">
         <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>pisi-B2</v>
+        <v>pisi-C2</v>
       </c>
       <c r="B126" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C126" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F126" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" s="6" t="str">
-        <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>pisi-B3</v>
+        <v>21</v>
+      </c>
+      <c r="F126" s="15">
+        <v>3250</v>
+      </c>
+      <c r="G126" s="2">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>3.5118833609788744</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="8" t="str">
+        <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
+        <v>pisi-C3</v>
       </c>
       <c r="B127" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C127" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E127" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F127" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="6" t="str">
-        <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>pisi-C1</v>
-      </c>
-      <c r="B128" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C128" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E128" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F128" s="14" t="s">
-        <v>13</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="E127" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F127" s="15">
+        <v>3300</v>
+      </c>
+      <c r="G127" s="9">
+        <f>LOG10(Table3[[#This Row],[CFU_per_10_leafdiscs]])</f>
+        <v>3.5185139398778875</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" s="17"/>
+      <c r="B128" s="17"/>
+      <c r="C128" s="17"/>
+      <c r="D128" s="17"/>
+      <c r="E128" s="18"/>
+      <c r="F128" s="19"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="6" t="str">
-        <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>pisi-C2</v>
-      </c>
-      <c r="B129" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C129" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E129" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="F129" s="15">
-        <v>3250</v>
-      </c>
+      <c r="A129" s="17"/>
+      <c r="B129" s="17"/>
+      <c r="C129" s="17"/>
+      <c r="D129" s="17"/>
+      <c r="E129" s="18"/>
+      <c r="F129" s="19"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="8" t="str">
-        <f>CONCATENATE(Table3[[#This Row],[treatment]],"-",Table3[[#This Row],[plant_rep]])</f>
-        <v>pisi-C3</v>
-      </c>
-      <c r="B130" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C130" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E130" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F130" s="15">
-        <v>3300</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="17"/>
-      <c r="B131" s="17"/>
-      <c r="C131" s="17"/>
-      <c r="D131" s="17"/>
-      <c r="E131" s="18"/>
-      <c r="F131" s="19"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="17"/>
-      <c r="B132" s="17"/>
-      <c r="C132" s="17"/>
-      <c r="D132" s="17"/>
-      <c r="E132" s="18"/>
-      <c r="F132" s="19"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="17"/>
-      <c r="B133" s="17"/>
-      <c r="C133" s="17"/>
-      <c r="D133" s="17"/>
-      <c r="E133" s="18"/>
-      <c r="F133" s="19"/>
+      <c r="A130" s="17"/>
+      <c r="B130" s="17"/>
+      <c r="C130" s="17"/>
+      <c r="D130" s="17"/>
+      <c r="E130" s="18"/>
+      <c r="F130" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/data/pseud_epi_growth_2024summer_R.xlsx
+++ b/data/pseud_epi_growth_2024summer_R.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zahavahrojer/Desktop/Cornell/Hendry Lab/pseud-epi-growth/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C948FB-895E-A04D-AC07-C6EDACB014FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760C2259-6E0C-A048-B411-D2D0F1401A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="0" windowWidth="27720" windowHeight="16940" xr2:uid="{531AFAF7-A9B0-284D-AB86-9C10EDD001D7}"/>
   </bookViews>
@@ -1085,10 +1085,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EC33927-75BD-A144-A8B4-F2C10C3589D3}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:G130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="F134" sqref="F134"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="43.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4263,6 +4266,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="65" fitToHeight="2" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
